--- a/Funkciók_listája.xlsx
+++ b/Funkciók_listája.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mobilprog1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A2BBF-39FC-4B88-BC34-D6295EDD018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7F329-0A5D-4019-BC39-84243E7309B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1613,7 +1613,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
@@ -1646,7 +1646,7 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1668,7 +1668,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1679,7 +1679,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B25" s="7">
         <f>SUMIF(C3:C24,Munka1!A2,B3:B24)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="C25" s="8"/>
     </row>

--- a/Funkciók_listája.xlsx
+++ b/Funkciók_listája.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mobilprog1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7F329-0A5D-4019-BC39-84243E7309B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BBD03-45F1-446A-8DC8-187A1B8EA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,10 +1572,10 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1624,7 +1624,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1635,7 +1635,7 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
@@ -1657,7 +1657,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
@@ -1668,7 +1668,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B25" s="7">
         <f>SUMIF(C3:C24,Munka1!A2,B3:B24)</f>
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="C25" s="8"/>
     </row>

--- a/Funkciók_listája.xlsx
+++ b/Funkciók_listája.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mobilprog1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BBD03-45F1-446A-8DC8-187A1B8EA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7AD544-6225-43BA-BA16-49E8C30AD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,10 +1572,10 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1668,7 +1668,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="15" customFormat="1" ht="36" customHeight="1">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B25" s="7">
         <f>SUMIF(C3:C24,Munka1!A2,B3:B24)</f>
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="C25" s="8"/>
     </row>

--- a/Funkciók_listája.xlsx
+++ b/Funkciók_listája.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mobilprog1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7AD544-6225-43BA-BA16-49E8C30AD12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726C076-C9E1-4CF5-A7DA-0666B624B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
